--- a/liste_site.xlsx
+++ b/liste_site.xlsx
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t xml:space="preserve">acp-exploitation.com</t>
   </si>
@@ -65,9 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve">d-meca.fr/login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.darbo-depannage.com/login</t>
   </si>
   <si>
     <t xml:space="preserve">http://www.darbo-location.com/login</t>
@@ -350,7 +344,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -372,13 +366,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1155CC"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -499,7 +486,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -516,15 +503,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -532,11 +519,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -544,19 +535,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -637,24 +620,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A944"/>
+  <dimension ref="A1:A1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="121.34"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -664,3144 +647,3137 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="s">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8"/>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="s">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8"/>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="s">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="s">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="s">
+    <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5" t="s">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9" t="s">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="s">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="s">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
+    <row r="59" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="10" t="s">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="s">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="s">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="s">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6" t="s">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="s">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="11" t="s">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="s">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="s">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="s">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="s">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="s">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="s">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="s">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="s">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="s">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="6" t="s">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3" t="s">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="s">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="s">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="s">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="s">
+    <row r="88" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="s">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="12" t="s">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="s">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="s">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="s">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="6" t="s">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="6" t="s">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="s">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="s">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="3" t="s">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="s">
+    <row r="99" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="6" t="s">
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="13" t="s">
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="6" t="s">
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="6" t="s">
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="6" t="s">
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="6" t="s">
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="6" t="s">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="13"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="s">
+    <row r="108" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="14"/>
-    </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="s">
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="6" t="s">
-        <v>106</v>
-      </c>
+      <c r="A110" s="7"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="8"/>
+      <c r="A111" s="7"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="8"/>
+      <c r="A112" s="7"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="8"/>
+      <c r="A113" s="7"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="8"/>
+      <c r="A114" s="7"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="8"/>
+      <c r="A115" s="7"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="8"/>
+      <c r="A116" s="7"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="8"/>
+      <c r="A117" s="7"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="8"/>
+      <c r="A118" s="7"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="8"/>
+      <c r="A119" s="7"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="8"/>
+      <c r="A120" s="7"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="8"/>
+      <c r="A121" s="7"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="8"/>
+      <c r="A122" s="7"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="8"/>
+      <c r="A123" s="7"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="8"/>
+      <c r="A124" s="7"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="8"/>
+      <c r="A125" s="7"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="8"/>
+      <c r="A126" s="7"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="8"/>
+      <c r="A127" s="7"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="8"/>
+      <c r="A128" s="7"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="8"/>
+      <c r="A129" s="7"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="8"/>
+      <c r="A130" s="7"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="8"/>
+      <c r="A131" s="7"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="8"/>
+      <c r="A132" s="7"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="8"/>
+      <c r="A133" s="7"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="8"/>
+      <c r="A134" s="7"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="8"/>
+      <c r="A135" s="7"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="8"/>
+      <c r="A136" s="7"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="8"/>
+      <c r="A137" s="7"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="8"/>
+      <c r="A138" s="7"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="8"/>
+      <c r="A139" s="7"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="8"/>
+      <c r="A140" s="7"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="8"/>
+      <c r="A141" s="7"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="8"/>
+      <c r="A142" s="7"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="8"/>
+      <c r="A143" s="7"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="8"/>
+      <c r="A144" s="7"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="8"/>
+      <c r="A145" s="7"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="8"/>
+      <c r="A146" s="7"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="8"/>
+      <c r="A147" s="7"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="8"/>
+      <c r="A148" s="7"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="8"/>
+      <c r="A149" s="7"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="8"/>
+      <c r="A150" s="7"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="8"/>
+      <c r="A151" s="7"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="8"/>
+      <c r="A152" s="7"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="8"/>
+      <c r="A153" s="7"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="8"/>
+      <c r="A154" s="7"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="8"/>
+      <c r="A155" s="7"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="8"/>
+      <c r="A156" s="7"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="8"/>
+      <c r="A157" s="7"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="8"/>
+      <c r="A158" s="7"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="8"/>
+      <c r="A159" s="7"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="8"/>
+      <c r="A160" s="7"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="8"/>
+      <c r="A161" s="7"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="8"/>
+      <c r="A162" s="7"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="8"/>
+      <c r="A163" s="7"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="8"/>
+      <c r="A164" s="7"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="8"/>
+      <c r="A165" s="7"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="8"/>
+      <c r="A166" s="7"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="8"/>
+      <c r="A167" s="7"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="8"/>
+      <c r="A168" s="7"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="8"/>
+      <c r="A169" s="7"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="8"/>
+      <c r="A170" s="7"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="8"/>
+      <c r="A171" s="7"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="8"/>
+      <c r="A172" s="7"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="8"/>
+      <c r="A173" s="7"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="8"/>
+      <c r="A174" s="7"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="8"/>
+      <c r="A175" s="7"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="8"/>
+      <c r="A176" s="7"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="8"/>
+      <c r="A177" s="7"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="8"/>
+      <c r="A178" s="7"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="8"/>
+      <c r="A179" s="7"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="8"/>
+      <c r="A180" s="7"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="8"/>
+      <c r="A181" s="7"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="8"/>
+      <c r="A182" s="7"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="8"/>
+      <c r="A183" s="7"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="8"/>
+      <c r="A184" s="7"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="8"/>
+      <c r="A185" s="7"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="8"/>
+      <c r="A186" s="7"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="8"/>
+      <c r="A187" s="7"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="8"/>
+      <c r="A188" s="7"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="8"/>
+      <c r="A189" s="7"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="8"/>
+      <c r="A190" s="7"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="8"/>
+      <c r="A191" s="7"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="8"/>
+      <c r="A192" s="7"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="8"/>
+      <c r="A193" s="7"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="8"/>
+      <c r="A194" s="7"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="8"/>
+      <c r="A195" s="7"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="8"/>
+      <c r="A196" s="7"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="8"/>
+      <c r="A197" s="7"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="8"/>
+      <c r="A198" s="7"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="8"/>
+      <c r="A199" s="7"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="8"/>
+      <c r="A200" s="7"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="8"/>
+      <c r="A201" s="7"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="8"/>
+      <c r="A202" s="7"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="8"/>
+      <c r="A203" s="7"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="8"/>
+      <c r="A204" s="7"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="8"/>
+      <c r="A205" s="7"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="8"/>
+      <c r="A206" s="7"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="8"/>
+      <c r="A207" s="7"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="8"/>
+      <c r="A208" s="7"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="8"/>
+      <c r="A209" s="7"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="8"/>
+      <c r="A210" s="7"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="8"/>
+      <c r="A211" s="7"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="8"/>
+      <c r="A212" s="7"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="8"/>
+      <c r="A213" s="7"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="8"/>
+      <c r="A214" s="7"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="8"/>
+      <c r="A215" s="7"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="8"/>
+      <c r="A216" s="7"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="8"/>
+      <c r="A217" s="7"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="8"/>
+      <c r="A218" s="7"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="8"/>
+      <c r="A219" s="7"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="8"/>
+      <c r="A220" s="7"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="8"/>
+      <c r="A221" s="7"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="8"/>
+      <c r="A222" s="7"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="8"/>
+      <c r="A223" s="7"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="8"/>
+      <c r="A224" s="7"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="8"/>
+      <c r="A225" s="7"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="8"/>
+      <c r="A226" s="7"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="8"/>
+      <c r="A227" s="7"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="8"/>
+      <c r="A228" s="7"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="8"/>
+      <c r="A229" s="7"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="8"/>
+      <c r="A230" s="7"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="8"/>
+      <c r="A231" s="7"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="8"/>
+      <c r="A232" s="7"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="8"/>
+      <c r="A233" s="7"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="8"/>
+      <c r="A234" s="7"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="8"/>
+      <c r="A235" s="7"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="8"/>
+      <c r="A236" s="7"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="8"/>
+      <c r="A237" s="7"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="8"/>
+      <c r="A238" s="7"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="8"/>
+      <c r="A239" s="7"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="8"/>
+      <c r="A240" s="7"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="8"/>
+      <c r="A241" s="7"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="8"/>
+      <c r="A242" s="7"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="8"/>
+      <c r="A243" s="7"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="8"/>
+      <c r="A244" s="7"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="8"/>
+      <c r="A245" s="7"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="8"/>
+      <c r="A246" s="7"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="8"/>
+      <c r="A247" s="7"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="8"/>
+      <c r="A248" s="7"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="8"/>
+      <c r="A249" s="7"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="8"/>
+      <c r="A250" s="7"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="8"/>
+      <c r="A251" s="7"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="8"/>
+      <c r="A252" s="7"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="8"/>
+      <c r="A253" s="7"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="8"/>
+      <c r="A254" s="7"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="8"/>
+      <c r="A255" s="7"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="8"/>
+      <c r="A256" s="7"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="8"/>
+      <c r="A257" s="7"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="8"/>
+      <c r="A258" s="7"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="8"/>
+      <c r="A259" s="7"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="8"/>
+      <c r="A260" s="7"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="8"/>
+      <c r="A261" s="7"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="8"/>
+      <c r="A262" s="7"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="8"/>
+      <c r="A263" s="7"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="8"/>
+      <c r="A264" s="7"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="8"/>
+      <c r="A265" s="7"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="8"/>
+      <c r="A266" s="7"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="8"/>
+      <c r="A267" s="7"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="8"/>
+      <c r="A268" s="7"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="8"/>
+      <c r="A269" s="7"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="8"/>
+      <c r="A270" s="7"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="8"/>
+      <c r="A271" s="7"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="8"/>
+      <c r="A272" s="7"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="8"/>
+      <c r="A273" s="7"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="8"/>
+      <c r="A274" s="7"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="8"/>
+      <c r="A275" s="7"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="8"/>
+      <c r="A276" s="7"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="8"/>
+      <c r="A277" s="7"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="8"/>
+      <c r="A278" s="7"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="8"/>
+      <c r="A279" s="7"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="8"/>
+      <c r="A280" s="7"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="8"/>
+      <c r="A281" s="7"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="8"/>
+      <c r="A282" s="7"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="8"/>
+      <c r="A283" s="7"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="8"/>
+      <c r="A284" s="7"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="8"/>
+      <c r="A285" s="7"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="8"/>
+      <c r="A286" s="7"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="8"/>
+      <c r="A287" s="7"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="8"/>
+      <c r="A288" s="7"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="8"/>
+      <c r="A289" s="7"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="8"/>
+      <c r="A290" s="7"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="8"/>
+      <c r="A291" s="7"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="8"/>
+      <c r="A292" s="7"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="8"/>
+      <c r="A293" s="7"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="8"/>
+      <c r="A294" s="7"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="8"/>
+      <c r="A295" s="7"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="8"/>
+      <c r="A296" s="7"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="8"/>
+      <c r="A297" s="7"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="8"/>
+      <c r="A298" s="7"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="8"/>
+      <c r="A299" s="7"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="8"/>
+      <c r="A300" s="7"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="8"/>
+      <c r="A301" s="7"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="8"/>
+      <c r="A302" s="7"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="8"/>
+      <c r="A303" s="7"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="8"/>
+      <c r="A304" s="7"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="8"/>
+      <c r="A305" s="7"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="8"/>
+      <c r="A306" s="7"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="8"/>
+      <c r="A307" s="7"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="8"/>
+      <c r="A308" s="7"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="8"/>
+      <c r="A309" s="7"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="8"/>
+      <c r="A310" s="7"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="8"/>
+      <c r="A311" s="7"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="8"/>
+      <c r="A312" s="7"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="8"/>
+      <c r="A313" s="7"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="8"/>
+      <c r="A314" s="7"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="8"/>
+      <c r="A315" s="7"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="8"/>
+      <c r="A316" s="7"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="8"/>
+      <c r="A317" s="7"/>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="8"/>
+      <c r="A318" s="7"/>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="8"/>
+      <c r="A319" s="7"/>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="8"/>
+      <c r="A320" s="7"/>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="8"/>
+      <c r="A321" s="7"/>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="8"/>
+      <c r="A322" s="7"/>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="8"/>
+      <c r="A323" s="7"/>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="8"/>
+      <c r="A324" s="7"/>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="8"/>
+      <c r="A325" s="7"/>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="8"/>
+      <c r="A326" s="7"/>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="8"/>
+      <c r="A327" s="7"/>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="8"/>
+      <c r="A328" s="7"/>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="8"/>
+      <c r="A329" s="7"/>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="8"/>
+      <c r="A330" s="7"/>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="8"/>
+      <c r="A331" s="7"/>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="8"/>
+      <c r="A332" s="7"/>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="8"/>
+      <c r="A333" s="7"/>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="8"/>
+      <c r="A334" s="7"/>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="8"/>
+      <c r="A335" s="7"/>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="8"/>
+      <c r="A336" s="7"/>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="8"/>
+      <c r="A337" s="7"/>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="8"/>
+      <c r="A338" s="7"/>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="8"/>
+      <c r="A339" s="7"/>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="8"/>
+      <c r="A340" s="7"/>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="8"/>
+      <c r="A341" s="7"/>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="8"/>
+      <c r="A342" s="7"/>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="8"/>
+      <c r="A343" s="7"/>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="8"/>
+      <c r="A344" s="7"/>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="8"/>
+      <c r="A345" s="7"/>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="8"/>
+      <c r="A346" s="7"/>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="8"/>
+      <c r="A347" s="7"/>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="8"/>
+      <c r="A348" s="7"/>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="8"/>
+      <c r="A349" s="7"/>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="8"/>
+      <c r="A350" s="7"/>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="8"/>
+      <c r="A351" s="7"/>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="8"/>
+      <c r="A352" s="7"/>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="8"/>
+      <c r="A353" s="7"/>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="8"/>
+      <c r="A354" s="7"/>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="8"/>
+      <c r="A355" s="7"/>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="8"/>
+      <c r="A356" s="7"/>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="8"/>
+      <c r="A357" s="7"/>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="8"/>
+      <c r="A358" s="7"/>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="8"/>
+      <c r="A359" s="7"/>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="8"/>
+      <c r="A360" s="7"/>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="8"/>
+      <c r="A361" s="7"/>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="8"/>
+      <c r="A362" s="7"/>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="8"/>
+      <c r="A363" s="7"/>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="8"/>
+      <c r="A364" s="7"/>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="8"/>
+      <c r="A365" s="7"/>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="8"/>
+      <c r="A366" s="7"/>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="8"/>
+      <c r="A367" s="7"/>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="8"/>
+      <c r="A368" s="7"/>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="8"/>
+      <c r="A369" s="7"/>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="8"/>
+      <c r="A370" s="7"/>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="8"/>
+      <c r="A371" s="7"/>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="8"/>
+      <c r="A372" s="7"/>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="8"/>
+      <c r="A373" s="7"/>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="8"/>
+      <c r="A374" s="7"/>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="8"/>
+      <c r="A375" s="7"/>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="8"/>
+      <c r="A376" s="7"/>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="8"/>
+      <c r="A377" s="7"/>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="8"/>
+      <c r="A378" s="7"/>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="8"/>
+      <c r="A379" s="7"/>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="8"/>
+      <c r="A380" s="7"/>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="8"/>
+      <c r="A381" s="7"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="8"/>
+      <c r="A382" s="7"/>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="8"/>
+      <c r="A383" s="7"/>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="8"/>
+      <c r="A384" s="7"/>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="8"/>
+      <c r="A385" s="7"/>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="8"/>
+      <c r="A386" s="7"/>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="8"/>
+      <c r="A387" s="7"/>
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="8"/>
+      <c r="A388" s="7"/>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="8"/>
+      <c r="A389" s="7"/>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="8"/>
+      <c r="A390" s="7"/>
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="8"/>
+      <c r="A391" s="7"/>
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="8"/>
+      <c r="A392" s="7"/>
     </row>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="8"/>
+      <c r="A393" s="7"/>
     </row>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="8"/>
+      <c r="A394" s="7"/>
     </row>
     <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="8"/>
+      <c r="A395" s="7"/>
     </row>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="8"/>
+      <c r="A396" s="7"/>
     </row>
     <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="8"/>
+      <c r="A397" s="7"/>
     </row>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="8"/>
+      <c r="A398" s="7"/>
     </row>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="8"/>
+      <c r="A399" s="7"/>
     </row>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="8"/>
+      <c r="A400" s="7"/>
     </row>
     <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="8"/>
+      <c r="A401" s="7"/>
     </row>
     <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="8"/>
+      <c r="A402" s="7"/>
     </row>
     <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="8"/>
+      <c r="A403" s="7"/>
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="8"/>
+      <c r="A404" s="7"/>
     </row>
     <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="8"/>
+      <c r="A405" s="7"/>
     </row>
     <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="8"/>
+      <c r="A406" s="7"/>
     </row>
     <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="8"/>
+      <c r="A407" s="7"/>
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="8"/>
+      <c r="A408" s="7"/>
     </row>
     <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="8"/>
+      <c r="A409" s="7"/>
     </row>
     <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="8"/>
+      <c r="A410" s="7"/>
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="8"/>
+      <c r="A411" s="7"/>
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="8"/>
+      <c r="A412" s="7"/>
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="8"/>
+      <c r="A413" s="7"/>
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="8"/>
+      <c r="A414" s="7"/>
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="8"/>
+      <c r="A415" s="7"/>
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="8"/>
+      <c r="A416" s="7"/>
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="8"/>
+      <c r="A417" s="7"/>
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="8"/>
+      <c r="A418" s="7"/>
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="8"/>
+      <c r="A419" s="7"/>
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="8"/>
+      <c r="A420" s="7"/>
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="8"/>
+      <c r="A421" s="7"/>
     </row>
     <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="8"/>
+      <c r="A422" s="7"/>
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="8"/>
+      <c r="A423" s="7"/>
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="8"/>
+      <c r="A424" s="7"/>
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="8"/>
+      <c r="A425" s="7"/>
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="8"/>
+      <c r="A426" s="7"/>
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="8"/>
+      <c r="A427" s="7"/>
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="8"/>
+      <c r="A428" s="7"/>
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="8"/>
+      <c r="A429" s="7"/>
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="8"/>
+      <c r="A430" s="7"/>
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="8"/>
+      <c r="A431" s="7"/>
     </row>
     <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="8"/>
+      <c r="A432" s="7"/>
     </row>
     <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="8"/>
+      <c r="A433" s="7"/>
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="8"/>
+      <c r="A434" s="7"/>
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="8"/>
+      <c r="A435" s="7"/>
     </row>
     <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="8"/>
+      <c r="A436" s="7"/>
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="8"/>
+      <c r="A437" s="7"/>
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="8"/>
+      <c r="A438" s="7"/>
     </row>
     <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="8"/>
+      <c r="A439" s="7"/>
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="8"/>
+      <c r="A440" s="7"/>
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="8"/>
+      <c r="A441" s="7"/>
     </row>
     <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="8"/>
+      <c r="A442" s="7"/>
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="8"/>
+      <c r="A443" s="7"/>
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="8"/>
+      <c r="A444" s="7"/>
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="8"/>
+      <c r="A445" s="7"/>
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="8"/>
+      <c r="A446" s="7"/>
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="8"/>
+      <c r="A447" s="7"/>
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="8"/>
+      <c r="A448" s="7"/>
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="8"/>
+      <c r="A449" s="7"/>
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="8"/>
+      <c r="A450" s="7"/>
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="8"/>
+      <c r="A451" s="7"/>
     </row>
     <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="8"/>
+      <c r="A452" s="7"/>
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="8"/>
+      <c r="A453" s="7"/>
     </row>
     <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="8"/>
+      <c r="A454" s="7"/>
     </row>
     <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="8"/>
+      <c r="A455" s="7"/>
     </row>
     <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="8"/>
+      <c r="A456" s="7"/>
     </row>
     <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="8"/>
+      <c r="A457" s="7"/>
     </row>
     <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="8"/>
+      <c r="A458" s="7"/>
     </row>
     <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="8"/>
+      <c r="A459" s="7"/>
     </row>
     <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="8"/>
+      <c r="A460" s="7"/>
     </row>
     <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="8"/>
+      <c r="A461" s="7"/>
     </row>
     <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="8"/>
+      <c r="A462" s="7"/>
     </row>
     <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="8"/>
+      <c r="A463" s="7"/>
     </row>
     <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="8"/>
+      <c r="A464" s="7"/>
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="8"/>
+      <c r="A465" s="7"/>
     </row>
     <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="8"/>
+      <c r="A466" s="7"/>
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="8"/>
+      <c r="A467" s="7"/>
     </row>
     <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="8"/>
+      <c r="A468" s="7"/>
     </row>
     <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="8"/>
+      <c r="A469" s="7"/>
     </row>
     <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="8"/>
+      <c r="A470" s="7"/>
     </row>
     <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="8"/>
+      <c r="A471" s="7"/>
     </row>
     <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="8"/>
+      <c r="A472" s="7"/>
     </row>
     <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="8"/>
+      <c r="A473" s="7"/>
     </row>
     <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="8"/>
+      <c r="A474" s="7"/>
     </row>
     <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="8"/>
+      <c r="A475" s="7"/>
     </row>
     <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="8"/>
+      <c r="A476" s="7"/>
     </row>
     <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="8"/>
+      <c r="A477" s="7"/>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="8"/>
+      <c r="A478" s="7"/>
     </row>
     <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="8"/>
+      <c r="A479" s="7"/>
     </row>
     <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="8"/>
+      <c r="A480" s="7"/>
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="8"/>
+      <c r="A481" s="7"/>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="8"/>
+      <c r="A482" s="7"/>
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="8"/>
+      <c r="A483" s="7"/>
     </row>
     <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="8"/>
+      <c r="A484" s="7"/>
     </row>
     <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="8"/>
+      <c r="A485" s="7"/>
     </row>
     <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="8"/>
+      <c r="A486" s="7"/>
     </row>
     <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="8"/>
+      <c r="A487" s="7"/>
     </row>
     <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="8"/>
+      <c r="A488" s="7"/>
     </row>
     <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="8"/>
+      <c r="A489" s="7"/>
     </row>
     <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="8"/>
+      <c r="A490" s="7"/>
     </row>
     <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="8"/>
+      <c r="A491" s="7"/>
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="8"/>
+      <c r="A492" s="7"/>
     </row>
     <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="8"/>
+      <c r="A493" s="7"/>
     </row>
     <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="8"/>
+      <c r="A494" s="7"/>
     </row>
     <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="8"/>
+      <c r="A495" s="7"/>
     </row>
     <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="8"/>
+      <c r="A496" s="7"/>
     </row>
     <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="8"/>
+      <c r="A497" s="7"/>
     </row>
     <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="8"/>
+      <c r="A498" s="7"/>
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="8"/>
+      <c r="A499" s="7"/>
     </row>
     <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="8"/>
+      <c r="A500" s="7"/>
     </row>
     <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="8"/>
+      <c r="A501" s="7"/>
     </row>
     <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="8"/>
+      <c r="A502" s="7"/>
     </row>
     <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="8"/>
+      <c r="A503" s="7"/>
     </row>
     <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="8"/>
+      <c r="A504" s="7"/>
     </row>
     <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="8"/>
+      <c r="A505" s="7"/>
     </row>
     <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="8"/>
+      <c r="A506" s="7"/>
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="8"/>
+      <c r="A507" s="7"/>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="8"/>
+      <c r="A508" s="7"/>
     </row>
     <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A509" s="8"/>
+      <c r="A509" s="7"/>
     </row>
     <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="8"/>
+      <c r="A510" s="7"/>
     </row>
     <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="8"/>
+      <c r="A511" s="7"/>
     </row>
     <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="8"/>
+      <c r="A512" s="7"/>
     </row>
     <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="8"/>
+      <c r="A513" s="7"/>
     </row>
     <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="8"/>
+      <c r="A514" s="7"/>
     </row>
     <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="8"/>
+      <c r="A515" s="7"/>
     </row>
     <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="8"/>
+      <c r="A516" s="7"/>
     </row>
     <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="8"/>
+      <c r="A517" s="7"/>
     </row>
     <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="8"/>
+      <c r="A518" s="7"/>
     </row>
     <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="8"/>
+      <c r="A519" s="7"/>
     </row>
     <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="8"/>
+      <c r="A520" s="7"/>
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A521" s="8"/>
+      <c r="A521" s="7"/>
     </row>
     <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A522" s="8"/>
+      <c r="A522" s="7"/>
     </row>
     <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A523" s="8"/>
+      <c r="A523" s="7"/>
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="8"/>
+      <c r="A524" s="7"/>
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="8"/>
+      <c r="A525" s="7"/>
     </row>
     <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="8"/>
+      <c r="A526" s="7"/>
     </row>
     <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="8"/>
+      <c r="A527" s="7"/>
     </row>
     <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A528" s="8"/>
+      <c r="A528" s="7"/>
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A529" s="8"/>
+      <c r="A529" s="7"/>
     </row>
     <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A530" s="8"/>
+      <c r="A530" s="7"/>
     </row>
     <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="8"/>
+      <c r="A531" s="7"/>
     </row>
     <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A532" s="8"/>
+      <c r="A532" s="7"/>
     </row>
     <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="8"/>
+      <c r="A533" s="7"/>
     </row>
     <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="8"/>
+      <c r="A534" s="7"/>
     </row>
     <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A535" s="8"/>
+      <c r="A535" s="7"/>
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A536" s="8"/>
+      <c r="A536" s="7"/>
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="8"/>
+      <c r="A537" s="7"/>
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A538" s="8"/>
+      <c r="A538" s="7"/>
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A539" s="8"/>
+      <c r="A539" s="7"/>
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A540" s="8"/>
+      <c r="A540" s="7"/>
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A541" s="8"/>
+      <c r="A541" s="7"/>
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A542" s="8"/>
+      <c r="A542" s="7"/>
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A543" s="8"/>
+      <c r="A543" s="7"/>
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A544" s="8"/>
+      <c r="A544" s="7"/>
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A545" s="8"/>
+      <c r="A545" s="7"/>
     </row>
     <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A546" s="8"/>
+      <c r="A546" s="7"/>
     </row>
     <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A547" s="8"/>
+      <c r="A547" s="7"/>
     </row>
     <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="8"/>
+      <c r="A548" s="7"/>
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A549" s="8"/>
+      <c r="A549" s="7"/>
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A550" s="8"/>
+      <c r="A550" s="7"/>
     </row>
     <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A551" s="8"/>
+      <c r="A551" s="7"/>
     </row>
     <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A552" s="8"/>
+      <c r="A552" s="7"/>
     </row>
     <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A553" s="8"/>
+      <c r="A553" s="7"/>
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A554" s="8"/>
+      <c r="A554" s="7"/>
     </row>
     <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A555" s="8"/>
+      <c r="A555" s="7"/>
     </row>
     <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A556" s="8"/>
+      <c r="A556" s="7"/>
     </row>
     <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A557" s="8"/>
+      <c r="A557" s="7"/>
     </row>
     <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="8"/>
+      <c r="A558" s="7"/>
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A559" s="8"/>
+      <c r="A559" s="7"/>
     </row>
     <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A560" s="8"/>
+      <c r="A560" s="7"/>
     </row>
     <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="8"/>
+      <c r="A561" s="7"/>
     </row>
     <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A562" s="8"/>
+      <c r="A562" s="7"/>
     </row>
     <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A563" s="8"/>
+      <c r="A563" s="7"/>
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="8"/>
+      <c r="A564" s="7"/>
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="8"/>
+      <c r="A565" s="7"/>
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="8"/>
+      <c r="A566" s="7"/>
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A567" s="8"/>
+      <c r="A567" s="7"/>
     </row>
     <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A568" s="8"/>
+      <c r="A568" s="7"/>
     </row>
     <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="8"/>
+      <c r="A569" s="7"/>
     </row>
     <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A570" s="8"/>
+      <c r="A570" s="7"/>
     </row>
     <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A571" s="8"/>
+      <c r="A571" s="7"/>
     </row>
     <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A572" s="8"/>
+      <c r="A572" s="7"/>
     </row>
     <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="8"/>
+      <c r="A573" s="7"/>
     </row>
     <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A574" s="8"/>
+      <c r="A574" s="7"/>
     </row>
     <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A575" s="8"/>
+      <c r="A575" s="7"/>
     </row>
     <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A576" s="8"/>
+      <c r="A576" s="7"/>
     </row>
     <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A577" s="8"/>
+      <c r="A577" s="7"/>
     </row>
     <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A578" s="8"/>
+      <c r="A578" s="7"/>
     </row>
     <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A579" s="8"/>
+      <c r="A579" s="7"/>
     </row>
     <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A580" s="8"/>
+      <c r="A580" s="7"/>
     </row>
     <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="8"/>
+      <c r="A581" s="7"/>
     </row>
     <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A582" s="8"/>
+      <c r="A582" s="7"/>
     </row>
     <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="8"/>
+      <c r="A583" s="7"/>
     </row>
     <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="8"/>
+      <c r="A584" s="7"/>
     </row>
     <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A585" s="8"/>
+      <c r="A585" s="7"/>
     </row>
     <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A586" s="8"/>
+      <c r="A586" s="7"/>
     </row>
     <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A587" s="8"/>
+      <c r="A587" s="7"/>
     </row>
     <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A588" s="8"/>
+      <c r="A588" s="7"/>
     </row>
     <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A589" s="8"/>
+      <c r="A589" s="7"/>
     </row>
     <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A590" s="8"/>
+      <c r="A590" s="7"/>
     </row>
     <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A591" s="8"/>
+      <c r="A591" s="7"/>
     </row>
     <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A592" s="8"/>
+      <c r="A592" s="7"/>
     </row>
     <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A593" s="8"/>
+      <c r="A593" s="7"/>
     </row>
     <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A594" s="8"/>
+      <c r="A594" s="7"/>
     </row>
     <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A595" s="8"/>
+      <c r="A595" s="7"/>
     </row>
     <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A596" s="8"/>
+      <c r="A596" s="7"/>
     </row>
     <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A597" s="8"/>
+      <c r="A597" s="7"/>
     </row>
     <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A598" s="8"/>
+      <c r="A598" s="7"/>
     </row>
     <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A599" s="8"/>
+      <c r="A599" s="7"/>
     </row>
     <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A600" s="8"/>
+      <c r="A600" s="7"/>
     </row>
     <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A601" s="8"/>
+      <c r="A601" s="7"/>
     </row>
     <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A602" s="8"/>
+      <c r="A602" s="7"/>
     </row>
     <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A603" s="8"/>
+      <c r="A603" s="7"/>
     </row>
     <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A604" s="8"/>
+      <c r="A604" s="7"/>
     </row>
     <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A605" s="8"/>
+      <c r="A605" s="7"/>
     </row>
     <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A606" s="8"/>
+      <c r="A606" s="7"/>
     </row>
     <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A607" s="8"/>
+      <c r="A607" s="7"/>
     </row>
     <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="8"/>
+      <c r="A608" s="7"/>
     </row>
     <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="8"/>
+      <c r="A609" s="7"/>
     </row>
     <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="8"/>
+      <c r="A610" s="7"/>
     </row>
     <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="8"/>
+      <c r="A611" s="7"/>
     </row>
     <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A612" s="8"/>
+      <c r="A612" s="7"/>
     </row>
     <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A613" s="8"/>
+      <c r="A613" s="7"/>
     </row>
     <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A614" s="8"/>
+      <c r="A614" s="7"/>
     </row>
     <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A615" s="8"/>
+      <c r="A615" s="7"/>
     </row>
     <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A616" s="8"/>
+      <c r="A616" s="7"/>
     </row>
     <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A617" s="8"/>
+      <c r="A617" s="7"/>
     </row>
     <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A618" s="8"/>
+      <c r="A618" s="7"/>
     </row>
     <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A619" s="8"/>
+      <c r="A619" s="7"/>
     </row>
     <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A620" s="8"/>
+      <c r="A620" s="7"/>
     </row>
     <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A621" s="8"/>
+      <c r="A621" s="7"/>
     </row>
     <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A622" s="8"/>
+      <c r="A622" s="7"/>
     </row>
     <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A623" s="8"/>
+      <c r="A623" s="7"/>
     </row>
     <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="8"/>
+      <c r="A624" s="7"/>
     </row>
     <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A625" s="8"/>
+      <c r="A625" s="7"/>
     </row>
     <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A626" s="8"/>
+      <c r="A626" s="7"/>
     </row>
     <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="8"/>
+      <c r="A627" s="7"/>
     </row>
     <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A628" s="8"/>
+      <c r="A628" s="7"/>
     </row>
     <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="8"/>
+      <c r="A629" s="7"/>
     </row>
     <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="8"/>
+      <c r="A630" s="7"/>
     </row>
     <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="8"/>
+      <c r="A631" s="7"/>
     </row>
     <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A632" s="8"/>
+      <c r="A632" s="7"/>
     </row>
     <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="8"/>
+      <c r="A633" s="7"/>
     </row>
     <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="8"/>
+      <c r="A634" s="7"/>
     </row>
     <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A635" s="8"/>
+      <c r="A635" s="7"/>
     </row>
     <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A636" s="8"/>
+      <c r="A636" s="7"/>
     </row>
     <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A637" s="8"/>
+      <c r="A637" s="7"/>
     </row>
     <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A638" s="8"/>
+      <c r="A638" s="7"/>
     </row>
     <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A639" s="8"/>
+      <c r="A639" s="7"/>
     </row>
     <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A640" s="8"/>
+      <c r="A640" s="7"/>
     </row>
     <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A641" s="8"/>
+      <c r="A641" s="7"/>
     </row>
     <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A642" s="8"/>
+      <c r="A642" s="7"/>
     </row>
     <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A643" s="8"/>
+      <c r="A643" s="7"/>
     </row>
     <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A644" s="8"/>
+      <c r="A644" s="7"/>
     </row>
     <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="8"/>
+      <c r="A645" s="7"/>
     </row>
     <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="8"/>
+      <c r="A646" s="7"/>
     </row>
     <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="8"/>
+      <c r="A647" s="7"/>
     </row>
     <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="8"/>
+      <c r="A648" s="7"/>
     </row>
     <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="8"/>
+      <c r="A649" s="7"/>
     </row>
     <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="8"/>
+      <c r="A650" s="7"/>
     </row>
     <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="8"/>
+      <c r="A651" s="7"/>
     </row>
     <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A652" s="8"/>
+      <c r="A652" s="7"/>
     </row>
     <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A653" s="8"/>
+      <c r="A653" s="7"/>
     </row>
     <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="8"/>
+      <c r="A654" s="7"/>
     </row>
     <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="8"/>
+      <c r="A655" s="7"/>
     </row>
     <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A656" s="8"/>
+      <c r="A656" s="7"/>
     </row>
     <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A657" s="8"/>
+      <c r="A657" s="7"/>
     </row>
     <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A658" s="8"/>
+      <c r="A658" s="7"/>
     </row>
     <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A659" s="8"/>
+      <c r="A659" s="7"/>
     </row>
     <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="8"/>
+      <c r="A660" s="7"/>
     </row>
     <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A661" s="8"/>
+      <c r="A661" s="7"/>
     </row>
     <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A662" s="8"/>
+      <c r="A662" s="7"/>
     </row>
     <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A663" s="8"/>
+      <c r="A663" s="7"/>
     </row>
     <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A664" s="8"/>
+      <c r="A664" s="7"/>
     </row>
     <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A665" s="8"/>
+      <c r="A665" s="7"/>
     </row>
     <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A666" s="8"/>
+      <c r="A666" s="7"/>
     </row>
     <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A667" s="8"/>
+      <c r="A667" s="7"/>
     </row>
     <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A668" s="8"/>
+      <c r="A668" s="7"/>
     </row>
     <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A669" s="8"/>
+      <c r="A669" s="7"/>
     </row>
     <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A670" s="8"/>
+      <c r="A670" s="7"/>
     </row>
     <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A671" s="8"/>
+      <c r="A671" s="7"/>
     </row>
     <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A672" s="8"/>
+      <c r="A672" s="7"/>
     </row>
     <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A673" s="8"/>
+      <c r="A673" s="7"/>
     </row>
     <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A674" s="8"/>
+      <c r="A674" s="7"/>
     </row>
     <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A675" s="8"/>
+      <c r="A675" s="7"/>
     </row>
     <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A676" s="8"/>
+      <c r="A676" s="7"/>
     </row>
     <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A677" s="8"/>
+      <c r="A677" s="7"/>
     </row>
     <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A678" s="8"/>
+      <c r="A678" s="7"/>
     </row>
     <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A679" s="8"/>
+      <c r="A679" s="7"/>
     </row>
     <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A680" s="8"/>
+      <c r="A680" s="7"/>
     </row>
     <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A681" s="8"/>
+      <c r="A681" s="7"/>
     </row>
     <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A682" s="8"/>
+      <c r="A682" s="7"/>
     </row>
     <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A683" s="8"/>
+      <c r="A683" s="7"/>
     </row>
     <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A684" s="8"/>
+      <c r="A684" s="7"/>
     </row>
     <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A685" s="8"/>
+      <c r="A685" s="7"/>
     </row>
     <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A686" s="8"/>
+      <c r="A686" s="7"/>
     </row>
     <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A687" s="8"/>
+      <c r="A687" s="7"/>
     </row>
     <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A688" s="8"/>
+      <c r="A688" s="7"/>
     </row>
     <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A689" s="8"/>
+      <c r="A689" s="7"/>
     </row>
     <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A690" s="8"/>
+      <c r="A690" s="7"/>
     </row>
     <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A691" s="8"/>
+      <c r="A691" s="7"/>
     </row>
     <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A692" s="8"/>
+      <c r="A692" s="7"/>
     </row>
     <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A693" s="8"/>
+      <c r="A693" s="7"/>
     </row>
     <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A694" s="8"/>
+      <c r="A694" s="7"/>
     </row>
     <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A695" s="8"/>
+      <c r="A695" s="7"/>
     </row>
     <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A696" s="8"/>
+      <c r="A696" s="7"/>
     </row>
     <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A697" s="8"/>
+      <c r="A697" s="7"/>
     </row>
     <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A698" s="8"/>
+      <c r="A698" s="7"/>
     </row>
     <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A699" s="8"/>
+      <c r="A699" s="7"/>
     </row>
     <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A700" s="8"/>
+      <c r="A700" s="7"/>
     </row>
     <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A701" s="8"/>
+      <c r="A701" s="7"/>
     </row>
     <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A702" s="8"/>
+      <c r="A702" s="7"/>
     </row>
     <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A703" s="8"/>
+      <c r="A703" s="7"/>
     </row>
     <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A704" s="8"/>
+      <c r="A704" s="7"/>
     </row>
     <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A705" s="8"/>
+      <c r="A705" s="7"/>
     </row>
     <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A706" s="8"/>
+      <c r="A706" s="7"/>
     </row>
     <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A707" s="8"/>
+      <c r="A707" s="7"/>
     </row>
     <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A708" s="8"/>
+      <c r="A708" s="7"/>
     </row>
     <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A709" s="8"/>
+      <c r="A709" s="7"/>
     </row>
     <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A710" s="8"/>
+      <c r="A710" s="7"/>
     </row>
     <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A711" s="8"/>
+      <c r="A711" s="7"/>
     </row>
     <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A712" s="8"/>
+      <c r="A712" s="7"/>
     </row>
     <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A713" s="8"/>
+      <c r="A713" s="7"/>
     </row>
     <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A714" s="8"/>
+      <c r="A714" s="7"/>
     </row>
     <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A715" s="8"/>
+      <c r="A715" s="7"/>
     </row>
     <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A716" s="8"/>
+      <c r="A716" s="7"/>
     </row>
     <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A717" s="8"/>
+      <c r="A717" s="7"/>
     </row>
     <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A718" s="8"/>
+      <c r="A718" s="7"/>
     </row>
     <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A719" s="8"/>
+      <c r="A719" s="7"/>
     </row>
     <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A720" s="8"/>
+      <c r="A720" s="7"/>
     </row>
     <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A721" s="8"/>
+      <c r="A721" s="7"/>
     </row>
     <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A722" s="8"/>
+      <c r="A722" s="7"/>
     </row>
     <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A723" s="8"/>
+      <c r="A723" s="7"/>
     </row>
     <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A724" s="8"/>
+      <c r="A724" s="7"/>
     </row>
     <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A725" s="8"/>
+      <c r="A725" s="7"/>
     </row>
     <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A726" s="8"/>
+      <c r="A726" s="7"/>
     </row>
     <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A727" s="8"/>
+      <c r="A727" s="7"/>
     </row>
     <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A728" s="8"/>
+      <c r="A728" s="7"/>
     </row>
     <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A729" s="8"/>
+      <c r="A729" s="7"/>
     </row>
     <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A730" s="8"/>
+      <c r="A730" s="7"/>
     </row>
     <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A731" s="8"/>
+      <c r="A731" s="7"/>
     </row>
     <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A732" s="8"/>
+      <c r="A732" s="7"/>
     </row>
     <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A733" s="8"/>
+      <c r="A733" s="7"/>
     </row>
     <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A734" s="8"/>
+      <c r="A734" s="7"/>
     </row>
     <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A735" s="8"/>
+      <c r="A735" s="7"/>
     </row>
     <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A736" s="8"/>
+      <c r="A736" s="7"/>
     </row>
     <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A737" s="8"/>
+      <c r="A737" s="7"/>
     </row>
     <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A738" s="8"/>
+      <c r="A738" s="7"/>
     </row>
     <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A739" s="8"/>
+      <c r="A739" s="7"/>
     </row>
     <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A740" s="8"/>
+      <c r="A740" s="7"/>
     </row>
     <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A741" s="8"/>
+      <c r="A741" s="7"/>
     </row>
     <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A742" s="8"/>
+      <c r="A742" s="7"/>
     </row>
     <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A743" s="8"/>
+      <c r="A743" s="7"/>
     </row>
     <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A744" s="8"/>
+      <c r="A744" s="7"/>
     </row>
     <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A745" s="8"/>
+      <c r="A745" s="7"/>
     </row>
     <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A746" s="8"/>
+      <c r="A746" s="7"/>
     </row>
     <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A747" s="8"/>
+      <c r="A747" s="7"/>
     </row>
     <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A748" s="8"/>
+      <c r="A748" s="7"/>
     </row>
     <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A749" s="8"/>
+      <c r="A749" s="7"/>
     </row>
     <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A750" s="8"/>
+      <c r="A750" s="7"/>
     </row>
     <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A751" s="8"/>
+      <c r="A751" s="7"/>
     </row>
     <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A752" s="8"/>
+      <c r="A752" s="7"/>
     </row>
     <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A753" s="8"/>
+      <c r="A753" s="7"/>
     </row>
     <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A754" s="8"/>
+      <c r="A754" s="7"/>
     </row>
     <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A755" s="8"/>
+      <c r="A755" s="7"/>
     </row>
     <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A756" s="8"/>
+      <c r="A756" s="7"/>
     </row>
     <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A757" s="8"/>
+      <c r="A757" s="7"/>
     </row>
     <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A758" s="8"/>
+      <c r="A758" s="7"/>
     </row>
     <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A759" s="8"/>
+      <c r="A759" s="7"/>
     </row>
     <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A760" s="8"/>
+      <c r="A760" s="7"/>
     </row>
     <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A761" s="8"/>
+      <c r="A761" s="7"/>
     </row>
     <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A762" s="8"/>
+      <c r="A762" s="7"/>
     </row>
     <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A763" s="8"/>
+      <c r="A763" s="7"/>
     </row>
     <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A764" s="8"/>
+      <c r="A764" s="7"/>
     </row>
     <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A765" s="8"/>
+      <c r="A765" s="7"/>
     </row>
     <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A766" s="8"/>
+      <c r="A766" s="7"/>
     </row>
     <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A767" s="8"/>
+      <c r="A767" s="7"/>
     </row>
     <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A768" s="8"/>
+      <c r="A768" s="7"/>
     </row>
     <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A769" s="8"/>
+      <c r="A769" s="7"/>
     </row>
     <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A770" s="8"/>
+      <c r="A770" s="7"/>
     </row>
     <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A771" s="8"/>
+      <c r="A771" s="7"/>
     </row>
     <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A772" s="8"/>
+      <c r="A772" s="7"/>
     </row>
     <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A773" s="8"/>
+      <c r="A773" s="7"/>
     </row>
     <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A774" s="8"/>
+      <c r="A774" s="7"/>
     </row>
     <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A775" s="8"/>
+      <c r="A775" s="7"/>
     </row>
     <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A776" s="8"/>
+      <c r="A776" s="7"/>
     </row>
     <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A777" s="8"/>
+      <c r="A777" s="7"/>
     </row>
     <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A778" s="8"/>
+      <c r="A778" s="7"/>
     </row>
     <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A779" s="8"/>
+      <c r="A779" s="7"/>
     </row>
     <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A780" s="8"/>
+      <c r="A780" s="7"/>
     </row>
     <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A781" s="8"/>
+      <c r="A781" s="7"/>
     </row>
     <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A782" s="8"/>
+      <c r="A782" s="7"/>
     </row>
     <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A783" s="8"/>
+      <c r="A783" s="7"/>
     </row>
     <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A784" s="8"/>
+      <c r="A784" s="7"/>
     </row>
     <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A785" s="8"/>
+      <c r="A785" s="7"/>
     </row>
     <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A786" s="8"/>
+      <c r="A786" s="7"/>
     </row>
     <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A787" s="8"/>
+      <c r="A787" s="7"/>
     </row>
     <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A788" s="8"/>
+      <c r="A788" s="7"/>
     </row>
     <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A789" s="8"/>
+      <c r="A789" s="7"/>
     </row>
     <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A790" s="8"/>
+      <c r="A790" s="7"/>
     </row>
     <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A791" s="8"/>
+      <c r="A791" s="7"/>
     </row>
     <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A792" s="8"/>
+      <c r="A792" s="7"/>
     </row>
     <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A793" s="8"/>
+      <c r="A793" s="7"/>
     </row>
     <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A794" s="8"/>
+      <c r="A794" s="7"/>
     </row>
     <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A795" s="8"/>
+      <c r="A795" s="7"/>
     </row>
     <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A796" s="8"/>
+      <c r="A796" s="7"/>
     </row>
     <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A797" s="8"/>
+      <c r="A797" s="7"/>
     </row>
     <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A798" s="8"/>
+      <c r="A798" s="7"/>
     </row>
     <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A799" s="8"/>
+      <c r="A799" s="7"/>
     </row>
     <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A800" s="8"/>
+      <c r="A800" s="7"/>
     </row>
     <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A801" s="8"/>
+      <c r="A801" s="7"/>
     </row>
     <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A802" s="8"/>
+      <c r="A802" s="7"/>
     </row>
     <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A803" s="8"/>
+      <c r="A803" s="7"/>
     </row>
     <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A804" s="8"/>
+      <c r="A804" s="7"/>
     </row>
     <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A805" s="8"/>
+      <c r="A805" s="7"/>
     </row>
     <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A806" s="8"/>
+      <c r="A806" s="7"/>
     </row>
     <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A807" s="8"/>
+      <c r="A807" s="7"/>
     </row>
     <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A808" s="8"/>
+      <c r="A808" s="7"/>
     </row>
     <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A809" s="8"/>
+      <c r="A809" s="7"/>
     </row>
     <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A810" s="8"/>
+      <c r="A810" s="7"/>
     </row>
     <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A811" s="8"/>
+      <c r="A811" s="7"/>
     </row>
     <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A812" s="8"/>
+      <c r="A812" s="7"/>
     </row>
     <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A813" s="8"/>
+      <c r="A813" s="7"/>
     </row>
     <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A814" s="8"/>
+      <c r="A814" s="7"/>
     </row>
     <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A815" s="8"/>
+      <c r="A815" s="7"/>
     </row>
     <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A816" s="8"/>
+      <c r="A816" s="7"/>
     </row>
     <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A817" s="8"/>
+      <c r="A817" s="7"/>
     </row>
     <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A818" s="8"/>
+      <c r="A818" s="7"/>
     </row>
     <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A819" s="8"/>
+      <c r="A819" s="7"/>
     </row>
     <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A820" s="8"/>
+      <c r="A820" s="7"/>
     </row>
     <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A821" s="8"/>
+      <c r="A821" s="7"/>
     </row>
     <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A822" s="8"/>
+      <c r="A822" s="7"/>
     </row>
     <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A823" s="8"/>
+      <c r="A823" s="7"/>
     </row>
     <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A824" s="8"/>
+      <c r="A824" s="7"/>
     </row>
     <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A825" s="8"/>
+      <c r="A825" s="7"/>
     </row>
     <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A826" s="8"/>
+      <c r="A826" s="7"/>
     </row>
     <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A827" s="8"/>
+      <c r="A827" s="7"/>
     </row>
     <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A828" s="8"/>
+      <c r="A828" s="7"/>
     </row>
     <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A829" s="8"/>
+      <c r="A829" s="7"/>
     </row>
     <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A830" s="8"/>
+      <c r="A830" s="7"/>
     </row>
     <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A831" s="8"/>
+      <c r="A831" s="7"/>
     </row>
     <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A832" s="8"/>
+      <c r="A832" s="7"/>
     </row>
     <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A833" s="8"/>
+      <c r="A833" s="7"/>
     </row>
     <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A834" s="8"/>
+      <c r="A834" s="7"/>
     </row>
     <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A835" s="8"/>
+      <c r="A835" s="7"/>
     </row>
     <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A836" s="8"/>
+      <c r="A836" s="7"/>
     </row>
     <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A837" s="8"/>
+      <c r="A837" s="7"/>
     </row>
     <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A838" s="8"/>
+      <c r="A838" s="7"/>
     </row>
     <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A839" s="8"/>
+      <c r="A839" s="7"/>
     </row>
     <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A840" s="8"/>
+      <c r="A840" s="7"/>
     </row>
     <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A841" s="8"/>
+      <c r="A841" s="7"/>
     </row>
     <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A842" s="8"/>
+      <c r="A842" s="7"/>
     </row>
     <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A843" s="8"/>
+      <c r="A843" s="7"/>
     </row>
     <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A844" s="8"/>
+      <c r="A844" s="7"/>
     </row>
     <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A845" s="8"/>
+      <c r="A845" s="7"/>
     </row>
     <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A846" s="8"/>
+      <c r="A846" s="7"/>
     </row>
     <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A847" s="8"/>
+      <c r="A847" s="7"/>
     </row>
     <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A848" s="8"/>
+      <c r="A848" s="7"/>
     </row>
     <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A849" s="8"/>
+      <c r="A849" s="7"/>
     </row>
     <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A850" s="8"/>
+      <c r="A850" s="7"/>
     </row>
     <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A851" s="8"/>
+      <c r="A851" s="7"/>
     </row>
     <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A852" s="8"/>
+      <c r="A852" s="7"/>
     </row>
     <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A853" s="8"/>
+      <c r="A853" s="7"/>
     </row>
     <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A854" s="8"/>
+      <c r="A854" s="7"/>
     </row>
     <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A855" s="8"/>
+      <c r="A855" s="7"/>
     </row>
     <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A856" s="8"/>
+      <c r="A856" s="7"/>
     </row>
     <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A857" s="8"/>
+      <c r="A857" s="7"/>
     </row>
     <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A858" s="8"/>
+      <c r="A858" s="7"/>
     </row>
     <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A859" s="8"/>
+      <c r="A859" s="7"/>
     </row>
     <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A860" s="8"/>
+      <c r="A860" s="7"/>
     </row>
     <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A861" s="8"/>
+      <c r="A861" s="7"/>
     </row>
     <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A862" s="8"/>
+      <c r="A862" s="7"/>
     </row>
     <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A863" s="8"/>
+      <c r="A863" s="7"/>
     </row>
     <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A864" s="8"/>
+      <c r="A864" s="7"/>
     </row>
     <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A865" s="8"/>
+      <c r="A865" s="7"/>
     </row>
     <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A866" s="8"/>
+      <c r="A866" s="7"/>
     </row>
     <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A867" s="8"/>
+      <c r="A867" s="7"/>
     </row>
     <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A868" s="8"/>
+      <c r="A868" s="7"/>
     </row>
     <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A869" s="8"/>
+      <c r="A869" s="7"/>
     </row>
     <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A870" s="8"/>
+      <c r="A870" s="7"/>
     </row>
     <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A871" s="8"/>
+      <c r="A871" s="7"/>
     </row>
     <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A872" s="8"/>
+      <c r="A872" s="7"/>
     </row>
     <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A873" s="8"/>
+      <c r="A873" s="7"/>
     </row>
     <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A874" s="8"/>
+      <c r="A874" s="7"/>
     </row>
     <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A875" s="8"/>
+      <c r="A875" s="7"/>
     </row>
     <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A876" s="8"/>
+      <c r="A876" s="7"/>
     </row>
     <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A877" s="8"/>
+      <c r="A877" s="7"/>
     </row>
     <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A878" s="8"/>
+      <c r="A878" s="7"/>
     </row>
     <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A879" s="8"/>
+      <c r="A879" s="7"/>
     </row>
     <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A880" s="8"/>
+      <c r="A880" s="7"/>
     </row>
     <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A881" s="8"/>
+      <c r="A881" s="7"/>
     </row>
     <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A882" s="8"/>
+      <c r="A882" s="7"/>
     </row>
     <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A883" s="8"/>
+      <c r="A883" s="7"/>
     </row>
     <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A884" s="8"/>
+      <c r="A884" s="7"/>
     </row>
     <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A885" s="8"/>
+      <c r="A885" s="7"/>
     </row>
     <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A886" s="8"/>
+      <c r="A886" s="7"/>
     </row>
     <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A887" s="8"/>
+      <c r="A887" s="7"/>
     </row>
     <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A888" s="8"/>
+      <c r="A888" s="7"/>
     </row>
     <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A889" s="8"/>
+      <c r="A889" s="7"/>
     </row>
     <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A890" s="8"/>
+      <c r="A890" s="7"/>
     </row>
     <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A891" s="8"/>
+      <c r="A891" s="7"/>
     </row>
     <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A892" s="8"/>
+      <c r="A892" s="7"/>
     </row>
     <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A893" s="8"/>
+      <c r="A893" s="7"/>
     </row>
     <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A894" s="8"/>
+      <c r="A894" s="7"/>
     </row>
     <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A895" s="8"/>
+      <c r="A895" s="7"/>
     </row>
     <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A896" s="8"/>
+      <c r="A896" s="7"/>
     </row>
     <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A897" s="8"/>
+      <c r="A897" s="7"/>
     </row>
     <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A898" s="8"/>
+      <c r="A898" s="7"/>
     </row>
     <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A899" s="8"/>
+      <c r="A899" s="7"/>
     </row>
     <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A900" s="8"/>
+      <c r="A900" s="7"/>
     </row>
     <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A901" s="8"/>
+      <c r="A901" s="7"/>
     </row>
     <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A902" s="8"/>
+      <c r="A902" s="7"/>
     </row>
     <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A903" s="8"/>
+      <c r="A903" s="7"/>
     </row>
     <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A904" s="8"/>
+      <c r="A904" s="7"/>
     </row>
     <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A905" s="8"/>
+      <c r="A905" s="7"/>
     </row>
     <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A906" s="8"/>
+      <c r="A906" s="7"/>
     </row>
     <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A907" s="8"/>
+      <c r="A907" s="7"/>
     </row>
     <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A908" s="8"/>
+      <c r="A908" s="7"/>
     </row>
     <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A909" s="8"/>
+      <c r="A909" s="7"/>
     </row>
     <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A910" s="8"/>
+      <c r="A910" s="7"/>
     </row>
     <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A911" s="8"/>
+      <c r="A911" s="7"/>
     </row>
     <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A912" s="8"/>
+      <c r="A912" s="7"/>
     </row>
     <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A913" s="8"/>
+      <c r="A913" s="7"/>
     </row>
     <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A914" s="8"/>
+      <c r="A914" s="7"/>
     </row>
     <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A915" s="8"/>
+      <c r="A915" s="7"/>
     </row>
     <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A916" s="8"/>
+      <c r="A916" s="7"/>
     </row>
     <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A917" s="8"/>
+      <c r="A917" s="7"/>
     </row>
     <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A918" s="8"/>
+      <c r="A918" s="7"/>
     </row>
     <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A919" s="8"/>
+      <c r="A919" s="7"/>
     </row>
     <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A920" s="8"/>
+      <c r="A920" s="7"/>
     </row>
     <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A921" s="8"/>
+      <c r="A921" s="7"/>
     </row>
     <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A922" s="8"/>
+      <c r="A922" s="7"/>
     </row>
     <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A923" s="8"/>
+      <c r="A923" s="7"/>
     </row>
     <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A924" s="8"/>
+      <c r="A924" s="7"/>
     </row>
     <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A925" s="8"/>
+      <c r="A925" s="7"/>
     </row>
     <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A926" s="8"/>
+      <c r="A926" s="7"/>
     </row>
     <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A927" s="8"/>
+      <c r="A927" s="7"/>
     </row>
     <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A928" s="8"/>
+      <c r="A928" s="7"/>
     </row>
     <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A929" s="8"/>
+      <c r="A929" s="7"/>
     </row>
     <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A930" s="8"/>
+      <c r="A930" s="7"/>
     </row>
     <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A931" s="8"/>
+      <c r="A931" s="7"/>
     </row>
     <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A932" s="8"/>
+      <c r="A932" s="7"/>
     </row>
     <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A933" s="8"/>
+      <c r="A933" s="7"/>
     </row>
     <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A934" s="8"/>
+      <c r="A934" s="7"/>
     </row>
     <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A935" s="8"/>
+      <c r="A935" s="7"/>
     </row>
     <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A936" s="8"/>
+      <c r="A936" s="7"/>
     </row>
     <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A937" s="8"/>
+      <c r="A937" s="7"/>
     </row>
     <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A938" s="8"/>
+      <c r="A938" s="7"/>
     </row>
     <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A939" s="8"/>
+      <c r="A939" s="7"/>
     </row>
     <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A940" s="8"/>
+      <c r="A940" s="7"/>
     </row>
     <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A941" s="8"/>
+      <c r="A941" s="7"/>
     </row>
     <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A942" s="8"/>
+      <c r="A942" s="7"/>
     </row>
     <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A943" s="8"/>
-    </row>
-    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A944" s="8"/>
-    </row>
+      <c r="A943" s="7"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="acp-exploitation.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://www.acp-poulain.com/login"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://www.action-performance-innovation.com/login"/>
-    <hyperlink ref="A5" r:id="rId4" display="ambulances-marcq.fr"/>
-    <hyperlink ref="A6" r:id="rId5" display="http://www.ambulances-taxi-bruvy.com/login"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://www.baude-entreprise.com/login"/>
-    <hyperlink ref="A8" r:id="rId7" display="brysbaert.fr/login"/>
-    <hyperlink ref="A9" r:id="rId8" display="camping-car-62.fr"/>
-    <hyperlink ref="A10" r:id="rId9" display="http://www.centre-de-beaute-phryne.com/login"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://www.charpente-martin.com/login"/>
-    <hyperlink ref="A12" r:id="rId11" display="chaumieredesmontsdeflandres.fr/login"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://chemineeserrano.fr/login"/>
-    <hyperlink ref="A14" r:id="rId13" display="http://www.croain-maconnerie.com/login"/>
-    <hyperlink ref="A15" r:id="rId14" display="d-meca.fr/login"/>
-    <hyperlink ref="A16" r:id="rId15" display="http://www.darbo-depannage.com/login"/>
-    <hyperlink ref="A17" r:id="rId16" display="http://www.darbo-location.com/login"/>
-    <hyperlink ref="A18" r:id="rId17" display="http://www.darbo-services.com/login"/>
-    <hyperlink ref="A19" r:id="rId18" display="ddh-france.com/login"/>
-    <hyperlink ref="A20" r:id="rId19" display="http://www.delbarre-menuiserie.com/login"/>
-    <hyperlink ref="A21" r:id="rId20" display="dewaelebriche.fr"/>
-    <hyperlink ref="A22" r:id="rId21" display="http://www.dumont-espaces-verts.com/login"/>
-    <hyperlink ref="A23" r:id="rId22" display="eclat-de-coco.fr"/>
-    <hyperlink ref="A24" r:id="rId23" display="elecindus.com"/>
-    <hyperlink ref="A25" r:id="rId24" display="http://www.espaces-et-nuances.com/login"/>
-    <hyperlink ref="A26" r:id="rId25" display="https://www.ets-lherbier.com/login"/>
-    <hyperlink ref="A27" r:id="rId26" display="https://sas-evoluv.fr/login"/>
-    <hyperlink ref="A28" r:id="rId27" display="http://garage-pasbecq.fr/login"/>
-    <hyperlink ref="A29" r:id="rId28" display="hdd-belgique.be/login"/>
-    <hyperlink ref="A30" r:id="rId29" display="http://www.emballages-hespel.com//login"/>
-    <hyperlink ref="A31" r:id="rId30" display="https://www.hg-automobiles.com/login"/>
-    <hyperlink ref="A32" r:id="rId31" display="http://atoutvert-services.fr/"/>
-    <hyperlink ref="A33" r:id="rId32" display="http://boucherie-monchy.com/"/>
-    <hyperlink ref="A34" r:id="rId33" display="http://cantinchaussures.fr/"/>
-    <hyperlink ref="A35" r:id="rId34" display="http://confort-audition.fr/"/>
-    <hyperlink ref="A36" r:id="rId35" display="http://cuisine-professionnelle-gtservices.fr/login"/>
-    <hyperlink ref="A37" r:id="rId36" display="http://detc-renove.fr/"/>
-    <hyperlink ref="A38" r:id="rId37" display="http://envelnor-packaging.fr/"/>
-    <hyperlink ref="A40" r:id="rId38" display="http://nfo-borne-auto.fr/"/>
-    <hyperlink ref="A41" r:id="rId39" display="pompesfunebreschappelaurent.sitseo.com/login"/>
-    <hyperlink ref="A42" r:id="rId40" display="http://scierie-lafonte.com/"/>
-    <hyperlink ref="A43" r:id="rId41" display="https://demo.click-and-collect-by-sitseo.com/admin658c2xagx"/>
-    <hyperlink ref="A45" r:id="rId42" display="https://garage-gp-cox-diesel.fr/login"/>
-    <hyperlink ref="A46" r:id="rId43" display="https://jp-pouget.fr/"/>
-    <hyperlink ref="A47" r:id="rId44" display="https://sas-duflot.fr/"/>
-    <hyperlink ref="A48" r:id="rId45" display="https://www.grafxcreation.fr/wp-admin/"/>
-    <hyperlink ref="A49" r:id="rId46" display="https://www.halbotcreations.fr/login"/>
-    <hyperlink ref="A50" r:id="rId47" display="vetoroubaix-saintjeanbaptiste.com/login/"/>
-    <hyperlink ref="A51" r:id="rId48" display="https://www.institut-eclat-de-beaute.com/login"/>
-    <hyperlink ref="A52" r:id="rId49" display="https://lille-psychologue.com/"/>
-    <hyperlink ref="A53" r:id="rId50" display="http://lamour-freres.fr/login"/>
-    <hyperlink ref="A54" r:id="rId51" display="https://le-rouleau-de-peinture.com/login"/>
-    <hyperlink ref="A55" r:id="rId52" display="lerendezvousdumarche.fr"/>
-    <hyperlink ref="A56" r:id="rId53" display="lesserresdantoine.fr"/>
-    <hyperlink ref="A57" r:id="rId54" display="http://lignier-sas.com/login"/>
-    <hyperlink ref="A58" r:id="rId55" display="lmf-energie.fr"/>
-    <hyperlink ref="A59" r:id="rId56" display="maisons-cmi.fr"/>
-    <hyperlink ref="A60" r:id="rId57" display="manuforfondations.fr/wp-admin"/>
-    <hyperlink ref="A61" r:id="rId58" display="https://www.menuiserie-faidherbe.com/login"/>
-    <hyperlink ref="A62" r:id="rId59" display="https://menuiserie-la-montagne.com/wp-login.php?redirect_to=https%3A%2F%2Fmenuiserie-la-montagne.com%2Fwp-admin%2F&amp;reauth=1"/>
-    <hyperlink ref="A63" r:id="rId60" display="http://www.menuiserie-pincede-puckridge.com/login"/>
-    <hyperlink ref="A64" r:id="rId61" display="www.menuiserie-technibois.com/login"/>
-    <hyperlink ref="A65" r:id="rId62" display="nfo-nord.fr"/>
-    <hyperlink ref="A66" r:id="rId63" display="https://www.parquet-duriez.com/login"/>
-    <hyperlink ref="A67" r:id="rId64" display="https://www.parquets-et-terrasses-des-flandres.fr/login"/>
-    <hyperlink ref="A68" r:id="rId65" display="www.paysagiste-guisse.com/login"/>
-    <hyperlink ref="A69" r:id="rId66" display="https://www.paysagiste-quality-jardin.com/login"/>
-    <hyperlink ref="A70" r:id="rId67" display="http://www.peinture-et-ravalement-du-littoral.com/login"/>
-    <hyperlink ref="A71" r:id="rId68" display="https://www.pepiniere-guisse.com/login"/>
-    <hyperlink ref="A72" r:id="rId69" display="picot-charly.fr/login"/>
-    <hyperlink ref="A73" r:id="rId70" display="http://www.pompes-funebres-bourrez.com/login"/>
-    <hyperlink ref="A74" r:id="rId71" display="pompes-funebres-chocques.fr"/>
-    <hyperlink ref="A75" r:id="rId72" display="pompes-funebres-delbarre.fr/login"/>
-    <hyperlink ref="A76" r:id="rId73" display="http://pompes-funebres-fremaux.fr/login"/>
-    <hyperlink ref="A77" r:id="rId74" display="pompes-funebres-ponche.fr"/>
-    <hyperlink ref="A78" r:id="rId75" display="prefacat-sas.fr"/>
-    <hyperlink ref="A79" r:id="rId76" display="projener-verandas.fr"/>
-    <hyperlink ref="A80" r:id="rId77" display="psaute.fr"/>
-    <hyperlink ref="A81" r:id="rId78" display="pscfbailleul.fr"/>
-    <hyperlink ref="A82" r:id="rId79" display="https://regiprocess.com/login"/>
-    <hyperlink ref="A83" r:id="rId80" display="remi-genie-electromecanique.fr"/>
-    <hyperlink ref="A84" r:id="rId81" display="http://www.renovation-lecomte.com/login"/>
-    <hyperlink ref="A85" r:id="rId82" display="https://rehabilitation-transformation-batiment.fr/"/>
-    <hyperlink ref="A86" r:id="rId83" display="sa-remi.com"/>
-    <hyperlink ref="A87" r:id="rId84" display="sadeb-ets.fr/login"/>
-    <hyperlink ref="A88" r:id="rId85" display="http://salon-sophie-curls.fr/login"/>
-    <hyperlink ref="A89" r:id="rId86" display="www.sarldumoulinetfils.com/login"/>
-    <hyperlink ref="A90" r:id="rId87" display="sbrenovation.fr/login"/>
-    <hyperlink ref="A91" r:id="rId88" display="http://seti-sarl.fr/login"/>
-    <hyperlink ref="A92" r:id="rId89" display="silmer.fr"/>
-    <hyperlink ref="A93" r:id="rId90" display="sitseo.com"/>
-    <hyperlink ref="A94" r:id="rId91" display="sodacen.sitseo.com"/>
-    <hyperlink ref="A95" r:id="rId92" display="www.stidel-construction.com/login"/>
-    <hyperlink ref="A96" r:id="rId93" display="transports-seingier.fr"/>
-    <hyperlink ref="A97" r:id="rId94" display="https://www.vasseur-services.com/login"/>
-    <hyperlink ref="A98" r:id="rId95" display="vela-industrie.com"/>
-    <hyperlink ref="A99" r:id="rId96" display="https://merlier-charpente-couverture.fr/"/>
-    <hyperlink ref="A100" r:id="rId97" display="mps-dourges.fr"/>
-    <hyperlink ref="A101" r:id="rId98" display="http://lb-filtration.fr/"/>
-    <hyperlink ref="A102" r:id="rId99" display="https://paysagiste-ghestem.fr/"/>
-    <hyperlink ref="A103" r:id="rId100" display="http://ltis-tuyauterie.fr/"/>
-    <hyperlink ref="A104" r:id="rId101" display="https://zendsi.com"/>
-    <hyperlink ref="A105" r:id="rId102" display="vasseur.sitseo.com"/>
-    <hyperlink ref="A106" r:id="rId103" display="madoucompetition.sitseo.com"/>
-    <hyperlink ref="A108" r:id="rId104" display="ltis-plomberie.fr"/>
-    <hyperlink ref="A109" r:id="rId105" display="grauwin-tp.com"/>
-    <hyperlink ref="A110" r:id="rId106" display="test.sitseo.com"/>
+    <hyperlink ref="A1" r:id="rId1" display="acp-exploitation.com"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://www.acp-poulain.com/login"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://www.action-performance-innovation.com/login"/>
+    <hyperlink ref="A4" r:id="rId4" display="ambulances-marcq.fr"/>
+    <hyperlink ref="A5" r:id="rId5" display="http://www.ambulances-taxi-bruvy.com/login"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://www.baude-entreprise.com/login"/>
+    <hyperlink ref="A7" r:id="rId7" display="brysbaert.fr/login"/>
+    <hyperlink ref="A8" r:id="rId8" display="camping-car-62.fr"/>
+    <hyperlink ref="A9" r:id="rId9" display="http://www.centre-de-beaute-phryne.com/login"/>
+    <hyperlink ref="A10" r:id="rId10" display="https://www.charpente-martin.com/login"/>
+    <hyperlink ref="A11" r:id="rId11" display="chaumieredesmontsdeflandres.fr/login"/>
+    <hyperlink ref="A12" r:id="rId12" display="https://chemineeserrano.fr/login"/>
+    <hyperlink ref="A13" r:id="rId13" display="http://www.croain-maconnerie.com/login"/>
+    <hyperlink ref="A14" r:id="rId14" display="d-meca.fr/login"/>
+    <hyperlink ref="A16" r:id="rId15" display="http://www.darbo-location.com/login"/>
+    <hyperlink ref="A17" r:id="rId16" display="http://www.darbo-services.com/login"/>
+    <hyperlink ref="A18" r:id="rId17" display="ddh-france.com/login"/>
+    <hyperlink ref="A19" r:id="rId18" display="http://www.delbarre-menuiserie.com/login"/>
+    <hyperlink ref="A20" r:id="rId19" display="dewaelebriche.fr"/>
+    <hyperlink ref="A21" r:id="rId20" display="http://www.dumont-espaces-verts.com/login"/>
+    <hyperlink ref="A22" r:id="rId21" display="eclat-de-coco.fr"/>
+    <hyperlink ref="A23" r:id="rId22" display="elecindus.com"/>
+    <hyperlink ref="A24" r:id="rId23" display="http://www.espaces-et-nuances.com/login"/>
+    <hyperlink ref="A25" r:id="rId24" display="https://www.ets-lherbier.com/login"/>
+    <hyperlink ref="A26" r:id="rId25" display="https://sas-evoluv.fr/login"/>
+    <hyperlink ref="A27" r:id="rId26" display="http://garage-pasbecq.fr/login"/>
+    <hyperlink ref="A28" r:id="rId27" display="hdd-belgique.be/login"/>
+    <hyperlink ref="A29" r:id="rId28" display="http://www.emballages-hespel.com//login"/>
+    <hyperlink ref="A30" r:id="rId29" display="https://www.hg-automobiles.com/login"/>
+    <hyperlink ref="A31" r:id="rId30" display="http://atoutvert-services.fr/"/>
+    <hyperlink ref="A32" r:id="rId31" display="http://boucherie-monchy.com/"/>
+    <hyperlink ref="A33" r:id="rId32" display="http://cantinchaussures.fr/"/>
+    <hyperlink ref="A34" r:id="rId33" display="http://confort-audition.fr/"/>
+    <hyperlink ref="A35" r:id="rId34" display="http://cuisine-professionnelle-gtservices.fr/login"/>
+    <hyperlink ref="A36" r:id="rId35" display="http://detc-renove.fr/"/>
+    <hyperlink ref="A37" r:id="rId36" display="http://envelnor-packaging.fr/"/>
+    <hyperlink ref="A39" r:id="rId37" display="http://nfo-borne-auto.fr/"/>
+    <hyperlink ref="A40" r:id="rId38" display="pompesfunebreschappelaurent.sitseo.com/login"/>
+    <hyperlink ref="A41" r:id="rId39" display="http://scierie-lafonte.com/"/>
+    <hyperlink ref="A42" r:id="rId40" display="https://demo.click-and-collect-by-sitseo.com/admin658c2xagx"/>
+    <hyperlink ref="A44" r:id="rId41" display="https://garage-gp-cox-diesel.fr/login"/>
+    <hyperlink ref="A45" r:id="rId42" display="https://jp-pouget.fr/"/>
+    <hyperlink ref="A46" r:id="rId43" display="https://sas-duflot.fr/"/>
+    <hyperlink ref="A47" r:id="rId44" display="https://www.grafxcreation.fr/wp-admin/"/>
+    <hyperlink ref="A48" r:id="rId45" display="https://www.halbotcreations.fr/login"/>
+    <hyperlink ref="A49" r:id="rId46" display="vetoroubaix-saintjeanbaptiste.com/login/"/>
+    <hyperlink ref="A50" r:id="rId47" display="https://www.institut-eclat-de-beaute.com/login"/>
+    <hyperlink ref="A51" r:id="rId48" display="https://lille-psychologue.com/"/>
+    <hyperlink ref="A52" r:id="rId49" display="http://lamour-freres.fr/login"/>
+    <hyperlink ref="A53" r:id="rId50" display="https://le-rouleau-de-peinture.com/login"/>
+    <hyperlink ref="A54" r:id="rId51" display="lerendezvousdumarche.fr"/>
+    <hyperlink ref="A55" r:id="rId52" display="lesserresdantoine.fr"/>
+    <hyperlink ref="A56" r:id="rId53" display="http://lignier-sas.com/login"/>
+    <hyperlink ref="A57" r:id="rId54" display="lmf-energie.fr"/>
+    <hyperlink ref="A58" r:id="rId55" display="maisons-cmi.fr"/>
+    <hyperlink ref="A59" r:id="rId56" display="manuforfondations.fr/wp-admin"/>
+    <hyperlink ref="A60" r:id="rId57" display="https://www.menuiserie-faidherbe.com/login"/>
+    <hyperlink ref="A61" r:id="rId58" display="https://menuiserie-la-montagne.com/wp-login.php?redirect_to=https%3A%2F%2Fmenuiserie-la-montagne.com%2Fwp-admin%2F&amp;reauth=1"/>
+    <hyperlink ref="A62" r:id="rId59" display="http://www.menuiserie-pincede-puckridge.com/login"/>
+    <hyperlink ref="A63" r:id="rId60" display="www.menuiserie-technibois.com/login"/>
+    <hyperlink ref="A64" r:id="rId61" display="nfo-nord.fr"/>
+    <hyperlink ref="A65" r:id="rId62" display="https://www.parquet-duriez.com/login"/>
+    <hyperlink ref="A66" r:id="rId63" display="https://www.parquets-et-terrasses-des-flandres.fr/login"/>
+    <hyperlink ref="A67" r:id="rId64" display="www.paysagiste-guisse.com/login"/>
+    <hyperlink ref="A68" r:id="rId65" display="https://www.paysagiste-quality-jardin.com/login"/>
+    <hyperlink ref="A69" r:id="rId66" display="http://www.peinture-et-ravalement-du-littoral.com/login"/>
+    <hyperlink ref="A70" r:id="rId67" display="https://www.pepiniere-guisse.com/login"/>
+    <hyperlink ref="A71" r:id="rId68" display="picot-charly.fr/login"/>
+    <hyperlink ref="A72" r:id="rId69" display="http://www.pompes-funebres-bourrez.com/login"/>
+    <hyperlink ref="A73" r:id="rId70" display="pompes-funebres-chocques.fr"/>
+    <hyperlink ref="A74" r:id="rId71" display="pompes-funebres-delbarre.fr/login"/>
+    <hyperlink ref="A75" r:id="rId72" display="http://pompes-funebres-fremaux.fr/login"/>
+    <hyperlink ref="A76" r:id="rId73" display="pompes-funebres-ponche.fr"/>
+    <hyperlink ref="A77" r:id="rId74" display="prefacat-sas.fr"/>
+    <hyperlink ref="A78" r:id="rId75" display="projener-verandas.fr"/>
+    <hyperlink ref="A79" r:id="rId76" display="psaute.fr"/>
+    <hyperlink ref="A80" r:id="rId77" display="pscfbailleul.fr"/>
+    <hyperlink ref="A81" r:id="rId78" display="https://regiprocess.com/login"/>
+    <hyperlink ref="A82" r:id="rId79" display="remi-genie-electromecanique.fr"/>
+    <hyperlink ref="A83" r:id="rId80" display="http://www.renovation-lecomte.com/login"/>
+    <hyperlink ref="A84" r:id="rId81" display="https://rehabilitation-transformation-batiment.fr/"/>
+    <hyperlink ref="A85" r:id="rId82" display="sa-remi.com"/>
+    <hyperlink ref="A86" r:id="rId83" display="sadeb-ets.fr/login"/>
+    <hyperlink ref="A87" r:id="rId84" display="http://salon-sophie-curls.fr/login"/>
+    <hyperlink ref="A88" r:id="rId85" display="www.sarldumoulinetfils.com/login"/>
+    <hyperlink ref="A89" r:id="rId86" display="sbrenovation.fr/login"/>
+    <hyperlink ref="A90" r:id="rId87" display="http://seti-sarl.fr/login"/>
+    <hyperlink ref="A91" r:id="rId88" display="silmer.fr"/>
+    <hyperlink ref="A92" r:id="rId89" display="sitseo.com"/>
+    <hyperlink ref="A93" r:id="rId90" display="sodacen.sitseo.com"/>
+    <hyperlink ref="A94" r:id="rId91" display="www.stidel-construction.com/login"/>
+    <hyperlink ref="A95" r:id="rId92" display="transports-seingier.fr"/>
+    <hyperlink ref="A96" r:id="rId93" display="https://www.vasseur-services.com/login"/>
+    <hyperlink ref="A97" r:id="rId94" display="vela-industrie.com"/>
+    <hyperlink ref="A98" r:id="rId95" display="https://merlier-charpente-couverture.fr/"/>
+    <hyperlink ref="A99" r:id="rId96" display="mps-dourges.fr"/>
+    <hyperlink ref="A100" r:id="rId97" display="http://lb-filtration.fr/"/>
+    <hyperlink ref="A101" r:id="rId98" display="https://paysagiste-ghestem.fr/"/>
+    <hyperlink ref="A102" r:id="rId99" display="http://ltis-tuyauterie.fr/"/>
+    <hyperlink ref="A103" r:id="rId100" display="https://zendsi.com"/>
+    <hyperlink ref="A104" r:id="rId101" display="vasseur.sitseo.com"/>
+    <hyperlink ref="A105" r:id="rId102" display="madoucompetition.sitseo.com"/>
+    <hyperlink ref="A107" r:id="rId103" display="ltis-plomberie.fr"/>
+    <hyperlink ref="A108" r:id="rId104" display="grauwin-tp.com"/>
+    <hyperlink ref="A109" r:id="rId105" display="test.sitseo.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
